--- a/data/escalamiento.xlsx
+++ b/data/escalamiento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\UNI\Control Digital\2013-II\Laboratorios en el MT\Control-Velocidad-Motor-DC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="pwm 500Hz" sheetId="1" r:id="rId1"/>
     <sheet name="pwm 20kHz" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="36">
   <si>
     <t>Vi(Entrada Arduino)</t>
   </si>
@@ -48,19 +49,7 @@
     <t>kHz</t>
   </si>
   <si>
-    <t>Eje rpm2</t>
-  </si>
-  <si>
     <t>tacometro</t>
-  </si>
-  <si>
-    <t>Eje rpm3</t>
-  </si>
-  <si>
-    <t>Eje rpm4</t>
-  </si>
-  <si>
-    <t>rpm prom</t>
   </si>
   <si>
     <t>offset</t>
@@ -68,12 +57,90 @@
   <si>
     <t>Vo-offset(salida F/V)2</t>
   </si>
+  <si>
+    <t>Eje rpm (medida indirecta)</t>
+  </si>
+  <si>
+    <t>rpm prom (medida promedio tacometro)</t>
+  </si>
+  <si>
+    <t>Eje rpm 1 - tacometro</t>
+  </si>
+  <si>
+    <t>Eje rpm 2 - tacometro</t>
+  </si>
+  <si>
+    <t>Eje rpm 3 - tacometro</t>
+  </si>
+  <si>
+    <t>tacómetro</t>
+  </si>
+  <si>
+    <t>Vi(Entrada al Arduino)</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>Column17</t>
+  </si>
+  <si>
+    <t>Column18</t>
+  </si>
+  <si>
+    <t>Column20</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Vo-offset</t>
+  </si>
+  <si>
+    <t>Eje rpm indirecto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,16 +156,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,20 +199,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -131,6 +413,9 @@
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -160,7 +445,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -240,7 +524,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -365,11 +648,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118558640"/>
-        <c:axId val="118559200"/>
+        <c:axId val="172848224"/>
+        <c:axId val="172848784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118558640"/>
+        <c:axId val="172848224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,12 +709,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118559200"/>
+        <c:crossAx val="172848784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118559200"/>
+        <c:axId val="172848784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,7 +771,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118558640"/>
+        <c:crossAx val="172848224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -552,7 +835,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -632,7 +914,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -757,11 +1038,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160276096"/>
-        <c:axId val="160276656"/>
+        <c:axId val="172851024"/>
+        <c:axId val="172851584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160276096"/>
+        <c:axId val="172851024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,12 +1099,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160276656"/>
+        <c:crossAx val="172851584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160276656"/>
+        <c:axId val="172851584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,7 +1161,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160276096"/>
+        <c:crossAx val="172851024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -944,7 +1225,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1024,7 +1304,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1149,11 +1428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160278896"/>
-        <c:axId val="160279456"/>
+        <c:axId val="195479344"/>
+        <c:axId val="195479904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160278896"/>
+        <c:axId val="195479344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,12 +1489,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160279456"/>
+        <c:crossAx val="195479904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160279456"/>
+        <c:axId val="195479904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1551,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160278896"/>
+        <c:crossAx val="195479344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1373,8 +1652,124 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>f_encoder vs Vo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pwm 20kHz'!$D$4:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2530</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5310</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6090</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pwm 20kHz'!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0419999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>f_encoder vs Vo</c:v>
           </c:tx>
@@ -1452,6 +1847,20 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'pwm 20kHz'!$D$4:$D$14</c:f>
@@ -1546,11 +1955,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228729264"/>
-        <c:axId val="228727024"/>
+        <c:axId val="250745536"/>
+        <c:axId val="250746096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228729264"/>
+        <c:axId val="250745536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,6 +1979,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>f_encoder</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1607,12 +2072,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228727024"/>
+        <c:crossAx val="250746096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228727024"/>
+        <c:axId val="250746096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,6 +2097,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Vo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1669,7 +2190,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228729264"/>
+        <c:crossAx val="250745536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1733,7 +2254,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.48520833656860529"/>
+          <c:y val="9.8765393694801706E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1770,8 +2298,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1140608937816571"/>
-          <c:y val="0.19721055701370663"/>
+          <c:x val="0.11406099867432225"/>
+          <c:y val="7.2177671944134575E-2"/>
           <c:w val="0.86281648857513216"/>
           <c:h val="0.77736111111111106"/>
         </c:manualLayout>
@@ -1825,8 +2353,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8826115485564308E-2"/>
-                  <c:y val="-4.1666666666666669E-4"/>
+                  <c:x val="-6.5047229867185072E-2"/>
+                  <c:y val="3.7538276465441819E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1947,11 +2475,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228729824"/>
-        <c:axId val="223276192"/>
+        <c:axId val="195484944"/>
+        <c:axId val="195485504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228729824"/>
+        <c:axId val="195484944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,6 +2499,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Vi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48939971797906429"/>
+              <c:y val="0.92195123089288189"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2008,12 +2599,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223276192"/>
+        <c:crossAx val="195485504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223276192"/>
+        <c:axId val="195485504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,6 +2624,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>rpm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2070,7 +2717,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228729824"/>
+        <c:crossAx val="195484944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2214,7 +2861,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12980509316301642"/>
+                  <c:y val="-4.1666666666666669E-4"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2339,11 +2991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228657520"/>
-        <c:axId val="228658640"/>
+        <c:axId val="195487744"/>
+        <c:axId val="195488304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228657520"/>
+        <c:axId val="195487744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,6 +3015,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Vo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2400,12 +3108,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228658640"/>
+        <c:crossAx val="195488304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228658640"/>
+        <c:axId val="195488304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,6 +3133,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>rpm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2462,7 +3226,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228657520"/>
+        <c:crossAx val="195487744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2563,8 +3327,118 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vi vs Vo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pwm 20kHz'!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pwm 20kHz'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.492</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0419999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Vi vs Vo</c:v>
           </c:tx>
@@ -2725,11 +3599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="233103472"/>
-        <c:axId val="233102352"/>
+        <c:axId val="262213728"/>
+        <c:axId val="257087632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="233103472"/>
+        <c:axId val="262213728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,6 +3623,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Vo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2786,12 +3716,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233102352"/>
+        <c:crossAx val="257087632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233102352"/>
+        <c:axId val="257087632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,6 +3741,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Vo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2848,7 +3834,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233103472"/>
+        <c:crossAx val="262213728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2992,7 +3978,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6925950489074404E-2"/>
+                  <c:y val="2.736111111111111E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3117,11 +4108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228724224"/>
-        <c:axId val="228728704"/>
+        <c:axId val="195493344"/>
+        <c:axId val="195493904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228724224"/>
+        <c:axId val="195493344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,6 +4132,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>rpm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3178,12 +4225,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228728704"/>
+        <c:crossAx val="195493904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228728704"/>
+        <c:axId val="195493904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3203,6 +4250,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Vo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3240,7 +4343,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228724224"/>
+        <c:crossAx val="195493344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3410,13 +4513,10 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -7871,15 +8971,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>288965</xdr:colOff>
+      <xdr:colOff>479465</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2351</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>593766</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>78551</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>174666</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7997,26 +9097,55 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:J14" totalsRowShown="0">
   <autoFilter ref="A3:J14"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Vi(Entrada Arduino)"/>
+    <tableColumn id="1" name="Vi(Entrada al Arduino)"/>
     <tableColumn id="2" name="Vo(salida F/V)"/>
-    <tableColumn id="10" name="Vo-offset(salida F/V)2" dataDxfId="0">
+    <tableColumn id="10" name="Vo-offset(salida F/V)2" dataDxfId="15">
       <calculatedColumnFormula>Table2[[#This Row],[Vo(salida F/V)]]-$B$15</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Encoder Hz"/>
     <tableColumn id="4" name="Eje Hz">
       <calculatedColumnFormula>D4/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Eje rpm" dataDxfId="2">
+    <tableColumn id="5" name="Eje rpm (medida indirecta)" dataDxfId="14">
       <calculatedColumnFormula>E4*60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Eje rpm2"/>
-    <tableColumn id="7" name="Eje rpm3"/>
-    <tableColumn id="8" name="Eje rpm4"/>
-    <tableColumn id="9" name="rpm prom" dataDxfId="1">
-      <calculatedColumnFormula>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</calculatedColumnFormula>
+    <tableColumn id="6" name="Eje rpm 1 - tacometro"/>
+    <tableColumn id="7" name="Eje rpm 2 - tacometro"/>
+    <tableColumn id="8" name="Eje rpm 3 - tacometro"/>
+    <tableColumn id="9" name="rpm prom (medida promedio tacometro)" dataDxfId="13">
+      <calculatedColumnFormula>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:L14" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="A3:L14"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Vi" dataDxfId="12"/>
+    <tableColumn id="2" name="Column1" dataDxfId="11"/>
+    <tableColumn id="5" name="Vo-offset" dataDxfId="10">
+      <calculatedColumnFormula>B18-0.566</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Column6" dataDxfId="9"/>
+    <tableColumn id="7" name="Encoder" dataDxfId="8"/>
+    <tableColumn id="8" name="Column8" dataDxfId="2"/>
+    <tableColumn id="9" name="Eje Hz" dataDxfId="7">
+      <calculatedColumnFormula>E4/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Column10" dataDxfId="1"/>
+    <tableColumn id="11" name="Eje rpm indirecto" dataDxfId="6">
+      <calculatedColumnFormula>G4*60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Column12" dataDxfId="0"/>
+    <tableColumn id="19" name="tacometro" dataDxfId="5">
+      <calculatedColumnFormula>ROUND((N20+P20+R20)/3,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="Column20" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -8536,8 +9665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8549,30 +9678,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>19.945699999999999</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -8581,16 +9713,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -8628,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</f>
+        <f>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8664,7 +9796,7 @@
         <v>133</v>
       </c>
       <c r="J5" s="1">
-        <f>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</f>
+        <f>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</f>
         <v>127</v>
       </c>
     </row>
@@ -8700,7 +9832,7 @@
         <v>310</v>
       </c>
       <c r="J6" s="1">
-        <f>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</f>
+        <f>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</f>
         <v>294</v>
       </c>
     </row>
@@ -8737,7 +9869,7 @@
         <v>682</v>
       </c>
       <c r="J7" s="1">
-        <f>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</f>
+        <f>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</f>
         <v>683</v>
       </c>
     </row>
@@ -8774,7 +9906,7 @@
         <v>1098</v>
       </c>
       <c r="J8" s="1">
-        <f>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</f>
+        <f>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</f>
         <v>1098</v>
       </c>
     </row>
@@ -8811,7 +9943,7 @@
         <v>1503</v>
       </c>
       <c r="J9" s="1">
-        <f>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</f>
+        <f>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</f>
         <v>1504</v>
       </c>
     </row>
@@ -8848,7 +9980,7 @@
         <v>1917</v>
       </c>
       <c r="J10" s="1">
-        <f>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</f>
+        <f>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</f>
         <v>1919</v>
       </c>
     </row>
@@ -8885,7 +10017,7 @@
         <v>2331</v>
       </c>
       <c r="J11" s="1">
-        <f>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</f>
+        <f>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</f>
         <v>2405</v>
       </c>
     </row>
@@ -8922,7 +10054,7 @@
         <v>2743</v>
       </c>
       <c r="J12" s="1">
-        <f>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</f>
+        <f>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</f>
         <v>2746</v>
       </c>
     </row>
@@ -8959,7 +10091,7 @@
         <v>3185</v>
       </c>
       <c r="J13" s="1">
-        <f>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</f>
+        <f>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</f>
         <v>3189</v>
       </c>
     </row>
@@ -8996,19 +10128,22 @@
         <v>3690</v>
       </c>
       <c r="J14" s="1">
-        <f>ROUND((Table2[[#This Row],[Eje rpm2]]+Table2[[#This Row],[Eje rpm3]]+Table2[[#This Row],[Eje rpm4]])/3,0)</f>
+        <f>ROUND((Table2[[#This Row],[Eje rpm 1 - tacometro]]+Table2[[#This Row],[Eje rpm 2 - tacometro]]+Table2[[#This Row],[Eje rpm 3 - tacometro]])/3,0)</f>
         <v>3698</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>0.56599999999999995</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9016,4 +10151,814 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:S30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <f>B18-0.566</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <f>E4/100</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3">
+        <f>G4*60</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3">
+        <f>ROUND((N20+P20+R20)/3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <f>B19-0.566</f>
+        <v>0.16300000000000003</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4">
+        <v>230</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4">
+        <f>E5/100</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5">
+        <f>G5*60</f>
+        <v>138</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3">
+        <f>ROUND((N21+P21+R21)/3,0)</f>
+        <v>127</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B20-0.566</f>
+        <v>0.32600000000000007</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>500</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6:G14" si="0">E6/100</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" ref="I6:I14" si="1">G6*60</f>
+        <v>300</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3">
+        <f>ROUND((N22+P22+R22)/3,0)</f>
+        <v>294</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <f>B21-0.566</f>
+        <v>0.78400000000000014</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4">
+        <f>1.18*1000</f>
+        <v>1180</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>708</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3">
+        <f>ROUND((N23+P23+R23)/3,0)</f>
+        <v>683</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <f>B22-0.566</f>
+        <v>1.222</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <f>1.86*1000</f>
+        <v>1860</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>1116</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3">
+        <f>ROUND((N24+P24+R24)/3,0)</f>
+        <v>1098</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B23-0.566</f>
+        <v>1.669</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4">
+        <f>2.53*1000</f>
+        <v>2530</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>25.3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>1518</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="3">
+        <f>ROUND((N25+P25+R25)/3,0)</f>
+        <v>1504</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <f>B24-0.566</f>
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <f>3.22*1000</f>
+        <v>3220</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>1932.0000000000002</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="3">
+        <f>ROUND((N26+P26+R26)/3,0)</f>
+        <v>1919</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B25-0.566</f>
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4">
+        <f>3.9*1000</f>
+        <v>3900</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>2340</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3">
+        <f>ROUND((N27+P27+R27)/3,0)</f>
+        <v>2405</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <f>B26-0.566</f>
+        <v>3.0340000000000003</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <f>4.55*1000</f>
+        <v>4550</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>2730</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="3">
+        <f>ROUND((N28+P28+R28)/3,0)</f>
+        <v>2746</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
+        <f>B27-0.566</f>
+        <v>3.492</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4">
+        <f>5.31*1000</f>
+        <v>5310</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>53.1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>3186</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3">
+        <f>ROUND((N29+P29+R29)/3,0)</f>
+        <v>3189</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2">
+        <f>B28-0.566</f>
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <f>6.09*1000</f>
+        <v>6090</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>60.9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>3654</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3">
+        <f>ROUND((N30+P30+R30)/3,0)</f>
+        <v>3698</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>1.35</v>
+      </c>
+      <c r="N21" s="10">
+        <v>118</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="10">
+        <v>131</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="10">
+        <v>133</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>1.788</v>
+      </c>
+      <c r="N22" s="9">
+        <v>292</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="9">
+        <v>280</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="9">
+        <v>310</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="N23" s="10">
+        <v>684</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="10">
+        <v>682</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="10">
+        <v>682</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
+        <v>2.714</v>
+      </c>
+      <c r="N24" s="9">
+        <v>1104</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="9">
+        <v>1093</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="9">
+        <v>1098</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>3.1309999999999998</v>
+      </c>
+      <c r="N25" s="10">
+        <v>1504</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="10">
+        <v>1505</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="10">
+        <v>1503</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1924</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1915</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="9">
+        <v>1917</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>4.0579999999999998</v>
+      </c>
+      <c r="N27" s="10">
+        <v>2329</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="10">
+        <v>2554</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" s="10">
+        <v>2331</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="N28" s="9">
+        <v>2746</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="9">
+        <v>2748</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="9">
+        <v>2743</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N29" s="10">
+        <v>3204</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" s="10">
+        <v>3177</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="10">
+        <v>3185</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N30" s="9">
+        <v>3708</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="9">
+        <v>3697</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" s="9">
+        <v>3690</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1"/>
+    <hyperlink ref="L5:L14" r:id="rId2" display="\\"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>